--- a/analyse_data_fournie/resolver_dot_190201.xlsx
+++ b/analyse_data_fournie/resolver_dot_190201.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\INSA\3TC\2\PIR\Mon_sujet\analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A5561C8-BE4A-448A-8E35-C5262CC9C48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88402CEB-0A5F-445A-9EBE-58C7E956E3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nb_Pays" sheetId="3" r:id="rId1"/>
     <sheet name="%certif_ok" sheetId="5" r:id="rId2"/>
     <sheet name="CN_communs" sheetId="6" r:id="rId3"/>
     <sheet name="resolver_dot_190201" sheetId="1" r:id="rId4"/>
+    <sheet name="nombre_CN" sheetId="8" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="1522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5193" uniqueCount="1523">
   <si>
     <t>1.0.0.1</t>
   </si>
@@ -4592,6 +4604,9 @@
   </si>
   <si>
     <t>Pas de CN</t>
+  </si>
+  <si>
+    <t>Moyenne</t>
   </si>
 </sst>
 </file>
@@ -5031,7 +5046,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -5074,8 +5089,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -5083,8 +5099,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -5117,6 +5134,7 @@
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Pourcentage" xfId="42" builtinId="5"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -5182,7 +5200,7 @@
               <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Graphique du nombre de resolvers DoT ouvert pour chaque pays</a:t>
+              <a:t>Graphique du nombre de resolvers DoT ouvert pour chaque pays en février 2019</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR">
               <a:effectLst/>
@@ -5877,7 +5895,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t>Graphique du % de certificat/nombre des resolvers DoT pour chaque pays</a:t>
+              <a:t>Graphique du % de certificat/nombre des resolvers DoT pour chaque pays en février 2019</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -7007,148 +7025,148 @@
               <c:strCache>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
+                  <c:v>IE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RU</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CH</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>IN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DK</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CZ</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SG</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AT</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>AU</c:v>
+                <c:pt idx="19">
+                  <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="20">
+                  <c:v>UA</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NO</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>KR</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TW</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>VG</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>RO</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>IS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>FI</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>EE</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>SK</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>GR</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>SI</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>TR</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>BZ</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>PL</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>ZA</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>BG</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>BR</c:v>
+                <c:pt idx="44">
+                  <c:v>VN</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>BZ</c:v>
+                <c:pt idx="45">
+                  <c:v>SA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>CA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CH</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CZ</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DE</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DK</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>EE</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>FI</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>GB</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>GR</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>HU</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>IE</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>IL</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>IN</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>IS</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>JP</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>KR</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>LT</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>LV</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>NL</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>NO</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>PR</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>RO</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>RU</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>SA</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="47">
                   <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>SE</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>SG</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>SI</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>SK</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>TR</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>TW</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>UA</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>US</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>VG</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>VN</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>ZA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7159,32 +7177,38 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>23</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1</c:v>
@@ -7193,46 +7217,40 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
                 <c:pt idx="18">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="21">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="22">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>3</c:v>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>4</c:v>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="44">
-                  <c:v>16</c:v>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7273,148 +7291,148 @@
               <c:strCache>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
+                  <c:v>IE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CN</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>JP</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>NL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>BR</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>RU</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CH</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>AU</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>IN</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>DK</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>CZ</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>SG</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>AT</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>AU</c:v>
+                <c:pt idx="19">
+                  <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="20">
+                  <c:v>UA</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>NO</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>KR</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>TW</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>VG</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>IT</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>RO</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>IS</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>LV</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>FI</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>EE</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>HU</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>SK</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>GR</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>CL</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>SI</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>ES</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>TR</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>BZ</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>PL</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>ZA</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>BG</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>BR</c:v>
+                <c:pt idx="44">
+                  <c:v>VN</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>BZ</c:v>
+                <c:pt idx="45">
+                  <c:v>SA</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>CA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>CH</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>CL</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CN</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CZ</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>DE</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>DK</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>EE</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>FI</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>GB</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>GR</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>HU</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>IE</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>IL</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>IN</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>IS</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>JP</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>KR</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="46">
                   <c:v>LT</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>LV</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>NL</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>NO</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>PR</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>RO</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>RU</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>SA</c:v>
-                </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="47">
                   <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>SE</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>SG</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>SI</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>SK</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>TR</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>TW</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>UA</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>US</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>VG</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>VN</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>ZA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7426,58 +7444,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>456</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>456</c:v>
-                </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2</c:v>
@@ -7486,67 +7516,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="29">
-                  <c:v>28</c:v>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="37">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="42">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>81</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>1</c:v>
@@ -7825,7 +7843,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="fr-FR" baseline="0"/>
-              <a:t> des resolvers les plus communs</a:t>
+              <a:t> des resolvers les plus communs en février 2019</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
@@ -18749,15 +18767,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>758190</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>173355</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18789,16 +18807,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>234315</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>46196</xdr:rowOff>
+      <xdr:rowOff>99536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18831,15 +18849,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>64770</xdr:colOff>
+      <xdr:colOff>62864</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>121921</xdr:rowOff>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27265,7 +27283,7 @@
   <location ref="A3:D53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
       <items count="52">
         <item x="30"/>
         <item x="0"/>
@@ -27320,6 +27338,15 @@
         <item x="34"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField showAll="0">
       <items count="246">
@@ -27610,115 +27637,52 @@
   </rowFields>
   <rowItems count="49">
     <i>
-      <x/>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
+      <x v="24"/>
     </i>
     <i>
       <x v="14"/>
     </i>
     <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
+      <x v="12"/>
     </i>
     <i>
       <x v="40"/>
@@ -27727,31 +27691,94 @@
       <x v="41"/>
     </i>
     <i>
-      <x v="42"/>
+      <x/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="21"/>
     </i>
     <i>
       <x v="43"/>
     </i>
     <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="44"/>
     </i>
     <i>
-      <x v="45"/>
+      <x v="4"/>
     </i>
     <i>
-      <x v="46"/>
+      <x v="34"/>
     </i>
     <i>
-      <x v="47"/>
+      <x v="50"/>
     </i>
     <i>
-      <x v="48"/>
+      <x v="2"/>
     </i>
     <i>
       <x v="49"/>
     </i>
     <i>
-      <x v="50"/>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="39"/>
     </i>
     <i t="grand">
       <x/>
@@ -31516,8 +31543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31934,10 +31961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4ECB5AE-D622-46C3-BD32-BB2CE0ACC2B3}">
-  <dimension ref="A3:D53"/>
+  <dimension ref="A3:G55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -31947,7 +31974,7 @@
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="30.5546875" bestFit="1" customWidth="1"/>
@@ -31982,305 +32009,321 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>792</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <v>4</v>
+        <v>456</v>
       </c>
       <c r="D5" s="4">
-        <v>5</v>
+        <v>456</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6" s="4">
         <v>1</v>
       </c>
       <c r="C6" s="4">
-        <v>10</v>
+        <v>255</v>
       </c>
       <c r="D6" s="4">
-        <v>11</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="B7" s="4">
+        <v>16</v>
+      </c>
       <c r="C7" s="4">
-        <v>1</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>173</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>85</v>
+      </c>
+      <c r="B9" s="4">
+        <v>9</v>
+      </c>
       <c r="C9" s="4">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
       <c r="B10" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
-        <v>14</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B11" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>885</v>
+        <v>93</v>
       </c>
       <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <v>21</v>
+      </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>9</v>
+        <v>173</v>
       </c>
       <c r="B13" s="4">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4">
-        <v>255</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4">
-        <v>256</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>152</v>
+        <v>234</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
       </c>
       <c r="C14" s="4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D14" s="4">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B15" s="4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="D15" s="4">
-        <v>70</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
       <c r="C16" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>795</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="4">
+        <v>10</v>
+      </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>1426</v>
+        <v>12</v>
       </c>
       <c r="B18" s="4">
         <v>1</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="4">
+        <v>8</v>
+      </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>317</v>
+        <v>98</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="B20" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D20" s="4">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="B21" s="4">
         <v>4</v>
       </c>
       <c r="C21" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D21" s="4">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>1458</v>
+        <v>792</v>
       </c>
       <c r="B23" s="4">
         <v>1</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="B24" s="4"/>
+        <v>1488</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
       <c r="C24" s="4">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D24" s="4">
-        <v>456</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="4">
-        <v>1</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B26" s="4"/>
       <c r="C26" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D26" s="4">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B27" s="4"/>
+        <v>75</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1</v>
+      </c>
       <c r="C27" s="4">
         <v>2</v>
       </c>
       <c r="D27" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>1306</v>
+        <v>205</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
@@ -32292,27 +32335,23 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B29" s="4">
-        <v>2</v>
-      </c>
+        <v>1502</v>
+      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="4">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4">
-        <v>34</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
+        <v>1306</v>
+      </c>
+      <c r="B30" s="4"/>
       <c r="C30" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" s="4">
         <v>3</v>
@@ -32320,39 +32359,35 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>1360</v>
+        <v>305</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B32" s="4">
-        <v>2</v>
-      </c>
+        <v>788</v>
+      </c>
+      <c r="B32" s="4"/>
       <c r="C32" s="4">
         <v>2</v>
       </c>
       <c r="D32" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
+        <v>1400</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="4">
         <v>2</v>
@@ -32360,83 +32395,81 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>110</v>
+        <v>840</v>
       </c>
       <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4">
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
         <v>2</v>
-      </c>
-      <c r="C34" s="4">
-        <v>28</v>
-      </c>
-      <c r="D34" s="4">
-        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>1375</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4">
+        <v>795</v>
+      </c>
+      <c r="B36" s="4">
         <v>1</v>
       </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>881</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4">
+        <v>1458</v>
+      </c>
+      <c r="B37" s="4">
         <v>1</v>
       </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>788</v>
+        <v>1455</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B39" s="4">
-        <v>3</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D39" s="4">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>802</v>
+        <v>1495</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4">
@@ -32448,59 +32481,55 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4">
+        <v>885</v>
+      </c>
+      <c r="B41" s="4">
         <v>1</v>
       </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="4">
-        <v>4</v>
-      </c>
+        <v>1462</v>
+      </c>
+      <c r="B42" s="4"/>
       <c r="C42" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>20</v>
+        <v>1426</v>
       </c>
       <c r="B43" s="4">
-        <v>2</v>
-      </c>
-      <c r="C43" s="4">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4">
+        <v>1430</v>
+      </c>
+      <c r="B44" s="4">
         <v>1</v>
       </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1455</v>
+        <v>121</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4">
@@ -32512,69 +32541,67 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B46" s="4">
+        <v>1375</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4">
         <v>1</v>
       </c>
-      <c r="C46" s="4"/>
       <c r="D46" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>205</v>
+        <v>871</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D47" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D48" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="4">
-        <v>16</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B49" s="4"/>
       <c r="C49" s="4">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="D49" s="4">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>1502</v>
+        <v>802</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D50" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>55</v>
+        <v>1360</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4">
@@ -32584,9 +32611,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>871</v>
+        <v>213</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4">
@@ -32596,7 +32623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>1514</v>
       </c>
@@ -32608,6 +32635,15 @@
       </c>
       <c r="D53" s="4">
         <v>1198</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>1522</v>
+      </c>
+      <c r="G55" s="5">
+        <f xml:space="preserve"> GETPIVOTDATA("Certificat valide2",$A$3,"Certificat valide2","ok") / GETPIVOTDATA("Certificat valide2",$A$3)</f>
+        <v>0.90984974958263776</v>
       </c>
     </row>
   </sheetData>
@@ -32620,14 +32656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8997FCEB-172C-4072-AD65-333517956715}">
   <dimension ref="A3:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -32697,8 +32733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1207"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A1191" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49629,4 +49665,1235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C4C393F-5340-407D-8845-736D42E8BC79}">
+  <dimension ref="A1:B245"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="G254" sqref="G254"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>